--- a/P0058/09_FICHAS/N3-FD-General.xlsx
+++ b/P0058/09_FICHAS/N3-FD-General.xlsx
@@ -1,26 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE4FFF1-B8E0-40D6-92BE-933AB1EC5544}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE DATO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>FUENTE</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE DATO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>TEMA GENERAL O MEDIO</t>
+  </si>
+  <si>
+    <t>GEOMETRÍA</t>
+  </si>
+  <si>
+    <t>TIPO DATO</t>
+  </si>
+  <si>
+    <t>PUBLICACIÓN</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>La Mojana-Camellones</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0058/02_PRODUCTOS/La Mojana.gdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICANH </t>
+  </si>
+  <si>
+    <t>Shapefile, geometria tipo línea con información de la localización de los "camellones", una técnica agrícola ancestral que favorece la productividad en entornos de manejo de agua, así como los predios categorizados por su "área de influencia media" y "directa"  de los departamentos de Cordoba (municipio de Ayapel)  y Sucre (Majagual, San Benito Abad, San Marcos y Sucre)</t>
+  </si>
+  <si>
+    <t>Geodatabase</t>
+  </si>
+  <si>
+    <t>FeatureClass</t>
+  </si>
+  <si>
+    <t>Medio socioeconómico</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>La gdb contiene la localización de camellones en el área de la mojana. no se cuenta con más información que se pueda asociar. no hay  información adicional de su procedencia (contratación y presupuesto e información de diccionario de datos)</t>
+  </si>
+  <si>
+    <t>La Mojana, camellones, Agricultura sostenible, Instituto Colombiano de Antropología e Historia (ICAHN), patrimonio cultural, gestión de recursos hídricos, conservación del patrimonio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +160,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +467,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/P0058/09_FICHAS/N3-FD-General.xlsx
+++ b/P0058/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AE4FFF1-B8E0-40D6-92BE-933AB1EC5544}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F96B699-B83B-49EC-99A9-4854649D9AE3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,15 +179,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,7 +473,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -542,53 +544,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" s="5" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>9999</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/P0058/09_FICHAS/N3-FD-General.xlsx
+++ b/P0058/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0001\09_FICHAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/crivera_javeriana_edu_co/Documents/Mojana control de archivos/REV_FICHAS/FICHAS/P0058/09_FICHAS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F96B699-B83B-49EC-99A9-4854649D9AE3}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{E747C491-3135-4E1F-A63F-A4E4C810BC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73F30466-8212-4FC5-BE0A-F48B277C7838}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,16 +95,13 @@
     <t>R0001</t>
   </si>
   <si>
-    <t>La Mojana-Camellones</t>
-  </si>
-  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0058/02_PRODUCTOS/La Mojana.gdb</t>
   </si>
   <si>
     <t xml:space="preserve">ICANH </t>
   </si>
   <si>
-    <t>Shapefile, geometria tipo línea con información de la localización de los "camellones", una técnica agrícola ancestral que favorece la productividad en entornos de manejo de agua, así como los predios categorizados por su "área de influencia media" y "directa"  de los departamentos de Cordoba (municipio de Ayapel)  y Sucre (Majagual, San Benito Abad, San Marcos y Sucre)</t>
+    <t>Shapefile, geometria tipo línea con información de la localización de los "camellones", una técnica agrícola ancestral que favorece la productividad en entornos de manejo de agua, así como los predios categorizados por su "área de influencia media" y "directa"  de los departamentos de Córdoba (municipio de Ayapel)  y Sucre (Majagual, San Benito Abad, San Marcos y Sucre)</t>
   </si>
   <si>
     <t>Geodatabase</t>
@@ -129,13 +126,16 @@
   </si>
   <si>
     <t>La Mojana, camellones, Agricultura sostenible, Instituto Colombiano de Antropología e Historia (ICAHN), patrimonio cultural, gestión de recursos hídricos, conservación del patrimonio</t>
+  </si>
+  <si>
+    <t>Camellones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,17 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,10 +471,10 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -494,7 +492,7 @@
     <col min="16" max="16" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,57 +542,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="5" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1">
+        <v>9999</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
-        <v>9999</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" ht="47.25" customHeight="1">
+    <row r="3" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
